--- a/projects/optimTest3.xlsx
+++ b/projects/optimTest3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19920" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="19920" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1572,9 +1572,6 @@
     <t>Discrete Weights</t>
   </si>
   <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
     <t>Wall R Value</t>
   </si>
   <si>
@@ -1596,9 +1593,6 @@
     <t>Shift Equip Schedule Profile Time</t>
   </si>
   <si>
-    <t>11122_LargeOfficeOSM_AirCooledChiller</t>
-  </si>
-  <si>
     <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
   </si>
   <si>
@@ -1797,12 +1791,6 @@
     <t>Total Natural Gas</t>
   </si>
   <si>
-    <t>NSGA calibration</t>
-  </si>
-  <si>
-    <t>run_openstudio_workflow_monthly.rb</t>
-  </si>
-  <si>
     <t>cprob</t>
   </si>
   <si>
@@ -1819,6 +1807,18 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow.rb</t>
+  </si>
+  <si>
+    <t>LargeOfficeOSM_Sampling</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>LHS Sampling Large Office</t>
   </si>
 </sst>
 </file>
@@ -5007,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5055,7 +5055,7 @@
         <v>479</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>480</v>
@@ -5066,7 +5066,7 @@
         <v>501</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>502</v>
@@ -5148,7 +5148,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>505</v>
@@ -5189,7 +5189,7 @@
         <v>491</v>
       </c>
       <c r="B16" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>504</v>
@@ -5211,7 +5211,7 @@
         <v>494</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>447</v>
@@ -5263,12 +5263,12 @@
         <v>4</v>
       </c>
       <c r="B25" s="25">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B26" s="25">
         <v>20</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B27" s="25">
         <v>0.9</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B28" s="25">
         <v>2</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B29" s="25">
         <v>2</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B30" s="3">
         <v>0.9</v>
@@ -5353,13 +5353,13 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>468</v>
@@ -5409,9 +5409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5586,8 +5586,8 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="b">
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -5667,7 +5667,8 @@
         <v>20</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <f>(J8+K8)/2</f>
+        <v>5</v>
       </c>
       <c r="M8" s="3">
         <f>(K8-J8)/6</f>
@@ -5868,8 +5869,8 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="b">
-        <v>0</v>
+      <c r="A16" t="b">
+        <v>1</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>295</v>
@@ -5950,7 +5951,8 @@
         <v>30</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <f>(J18+K18)/2</f>
+        <v>5</v>
       </c>
       <c r="M18" s="3">
         <f>(K18-J18)/6</f>
@@ -6157,9 +6159,9 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="b">
-        <v>1</v>
+    <row r="26" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -6216,17 +6218,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="K28" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L28" s="3">
+        <f>(J28+K28)/2</f>
         <v>0</v>
       </c>
       <c r="M28" s="3">
         <f>(K28-J28)/6</f>
-        <v>10</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="N28" s="1"/>
       <c r="P28" s="1" t="s">
@@ -6350,6 +6353,7 @@
         <v>4</v>
       </c>
       <c r="L33" s="3">
+        <f>(J33+K33)/2</f>
         <v>0</v>
       </c>
       <c r="M33" s="3">
@@ -6390,6 +6394,7 @@
         <v>4</v>
       </c>
       <c r="L34" s="3">
+        <f>(J34+K34)/2</f>
         <v>0</v>
       </c>
       <c r="M34" s="3">
@@ -6451,7 +6456,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>268</v>
@@ -6473,7 +6478,8 @@
       <c r="K37">
         <v>5</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="3">
+        <f>(J37+K37)/2</f>
         <v>2.5</v>
       </c>
       <c r="M37" s="3">
@@ -6583,7 +6589,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>268</v>
@@ -6605,7 +6611,8 @@
       <c r="K42">
         <v>5</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="3">
+        <f>(J42+K42)/2</f>
         <v>2.5</v>
       </c>
       <c r="M42" s="3">
@@ -6763,8 +6770,9 @@
       <c r="K48">
         <v>0.5</v>
       </c>
-      <c r="L48">
-        <v>0.2</v>
+      <c r="L48" s="3">
+        <f>(J48+K48)/2</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M48" s="3">
         <f>(K48-J48)/6</f>
@@ -7185,8 +7193,9 @@
       <c r="K65">
         <v>0.5</v>
       </c>
-      <c r="L65">
-        <v>0.2</v>
+      <c r="L65" s="3">
+        <f>(J65+K65)/2</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M65" s="3">
         <f>(K65-J65)/6</f>
@@ -7607,7 +7616,8 @@
       <c r="K82">
         <v>90</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L82" s="3">
+        <f>(J82+K82)/2</f>
         <v>0</v>
       </c>
       <c r="M82" s="3">
@@ -7667,7 +7677,8 @@
       <c r="K84">
         <v>20000</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L84" s="3">
+        <f>(J84+K84)/2</f>
         <v>15000</v>
       </c>
       <c r="M84" s="3">
@@ -7960,10 +7971,10 @@
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N96" s="1"/>
     </row>
@@ -7995,8 +8006,9 @@
       <c r="K97">
         <v>100</v>
       </c>
-      <c r="L97" s="20">
-        <v>69</v>
+      <c r="L97" s="3">
+        <f>(J97+K97)/2</f>
+        <v>75</v>
       </c>
       <c r="M97" s="3">
         <f>(K97-J97)/6</f>
@@ -8345,8 +8357,9 @@
       <c r="K111">
         <v>95</v>
       </c>
-      <c r="L111" s="20">
-        <v>93</v>
+      <c r="L111" s="3">
+        <f>(J111+K111)/2</f>
+        <v>90</v>
       </c>
       <c r="M111" s="3">
         <f>(K111-J111)/6</f>
@@ -8554,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>396</v>
@@ -8588,7 +8601,7 @@
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I121" s="20" t="s">
         <v>440</v>
@@ -8601,7 +8614,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>400</v>
@@ -8624,6 +8637,7 @@
         <v>2</v>
       </c>
       <c r="L122" s="3">
+        <f>(J122+K122)/2</f>
         <v>0</v>
       </c>
       <c r="M122" s="3">
@@ -8640,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>396</v>
@@ -8685,7 +8699,7 @@
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I124" s="20" t="s">
         <v>440</v>
@@ -8709,7 +8723,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>400</v>
@@ -8731,7 +8745,8 @@
       <c r="K125" s="34">
         <v>2</v>
       </c>
-      <c r="L125" s="34">
+      <c r="L125" s="3">
+        <f>(J125+K125)/2</f>
         <v>0</v>
       </c>
       <c r="M125" s="3">
@@ -8754,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>396</v>
@@ -8799,7 +8814,7 @@
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I127" s="20" t="s">
         <v>440</v>
@@ -8823,7 +8838,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>400</v>
@@ -8845,7 +8860,8 @@
       <c r="K128" s="34">
         <v>2</v>
       </c>
-      <c r="L128" s="34">
+      <c r="L128" s="3">
+        <f>(J128+K128)/2</f>
         <v>0</v>
       </c>
       <c r="M128" s="3">
@@ -8868,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>396</v>
@@ -8913,7 +8929,7 @@
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I130" s="20" t="s">
         <v>440</v>
@@ -8937,7 +8953,7 @@
         <v>26</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D131" s="20" t="s">
         <v>400</v>
@@ -8959,7 +8975,8 @@
       <c r="K131" s="34">
         <v>2</v>
       </c>
-      <c r="L131" s="34">
+      <c r="L131" s="3">
+        <f>(J131+K131)/2</f>
         <v>0</v>
       </c>
       <c r="M131" s="3">
@@ -8982,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>396</v>
@@ -9027,7 +9044,7 @@
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I133" s="20" t="s">
         <v>440</v>
@@ -9051,7 +9068,7 @@
         <v>26</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>400</v>
@@ -9073,7 +9090,8 @@
       <c r="K134" s="34">
         <v>2</v>
       </c>
-      <c r="L134" s="34">
+      <c r="L134" s="3">
+        <f>(J134+K134)/2</f>
         <v>0</v>
       </c>
       <c r="M134" s="3">
@@ -9096,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C135" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s">
         <v>170</v>
@@ -9110,10 +9128,10 @@
         <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D136" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -9130,8 +9148,9 @@
       <c r="K136">
         <v>1000</v>
       </c>
-      <c r="L136">
-        <v>500</v>
+      <c r="L136" s="3">
+        <f>(J136+K136)/2</f>
+        <v>700</v>
       </c>
       <c r="M136" s="3">
         <f>(K136-J136)/6</f>
@@ -9148,10 +9167,10 @@
         <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D137" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -9164,15 +9183,15 @@
       <c r="O137" s="33"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A138" t="b">
+    <row r="138" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="20" t="b">
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C138" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D138" t="s">
         <v>76</v>
@@ -9191,10 +9210,10 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -9204,10 +9223,10 @@
       </c>
       <c r="G139"/>
       <c r="H139" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I139" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
@@ -9218,10 +9237,10 @@
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D140" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -9243,10 +9262,10 @@
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D141" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
@@ -9265,8 +9284,9 @@
       <c r="K141">
         <v>0.9</v>
       </c>
-      <c r="L141" s="1">
-        <v>0.75</v>
+      <c r="L141" s="3">
+        <f>(J141+K141)/2</f>
+        <v>0.7</v>
       </c>
       <c r="M141" s="3">
         <f>(K141-J141)/6</f>
@@ -9283,10 +9303,10 @@
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D142" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -9308,10 +9328,10 @@
         <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D143" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -9333,10 +9353,10 @@
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D144" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -9349,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
@@ -9360,10 +9380,10 @@
         <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D145" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -9376,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
@@ -9449,7 +9469,7 @@
         <v>487</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -9511,10 +9531,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
         <v>498</v>
@@ -9537,10 +9557,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C7" t="s">
         <v>498</v>
@@ -9563,10 +9583,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C8" t="s">
         <v>498</v>
@@ -9585,10 +9605,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C9" t="s">
         <v>498</v>
@@ -17145,10 +17165,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C328" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D328" t="s">
         <v>76</v>
@@ -17159,10 +17179,10 @@
         <v>25</v>
       </c>
       <c r="C329" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D329" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -17171,10 +17191,10 @@
         <v>70</v>
       </c>
       <c r="H329" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I329" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -17182,10 +17202,10 @@
         <v>25</v>
       </c>
       <c r="C330" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D330" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -17202,10 +17222,10 @@
         <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D331" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -17222,10 +17242,10 @@
         <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D332" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -17242,10 +17262,10 @@
         <v>25</v>
       </c>
       <c r="C333" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D333" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -17259,10 +17279,10 @@
         <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D334" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -17271,10 +17291,10 @@
         <v>70</v>
       </c>
       <c r="H334" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I334" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -17282,10 +17302,10 @@
         <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D335" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -17294,10 +17314,10 @@
         <v>70</v>
       </c>
       <c r="H335" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I335" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -17305,10 +17325,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C336" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D336" t="s">
         <v>76</v>
@@ -17319,10 +17339,10 @@
         <v>25</v>
       </c>
       <c r="C337" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D337" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -17331,10 +17351,10 @@
         <v>70</v>
       </c>
       <c r="H337" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I337" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.3">
@@ -17342,10 +17362,10 @@
         <v>25</v>
       </c>
       <c r="C338" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D338" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -17354,10 +17374,10 @@
         <v>70</v>
       </c>
       <c r="H338" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I338" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.3">
@@ -17365,10 +17385,10 @@
         <v>25</v>
       </c>
       <c r="C339" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D339" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -17385,10 +17405,10 @@
         <v>25</v>
       </c>
       <c r="C340" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D340" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -17405,10 +17425,10 @@
         <v>25</v>
       </c>
       <c r="C341" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D341" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>

--- a/projects/optimTest3.xlsx
+++ b/projects/optimTest3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19920" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4977,17 +4977,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -5007,21 +5007,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="22"/>
       <c r="B1" s="27"/>
       <c r="C1" s="22"/>
@@ -5030,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>445</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>446</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>501</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>503</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>459</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>492</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>494</v>
       </c>
@@ -5217,10 +5217,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
@@ -5231,7 +5228,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>474</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>470</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5258,7 +5255,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>591</v>
       </c>
@@ -5275,7 +5272,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>587</v>
       </c>
@@ -5284,7 +5281,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>588</v>
       </c>
@@ -5293,7 +5290,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>589</v>
       </c>
@@ -5302,7 +5299,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>590</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
@@ -5323,7 +5320,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5362,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
@@ -5409,34 +5406,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="46.109375" style="1" customWidth="1"/>
-    <col min="19" max="21" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5470,7 +5467,7 @@
       <c r="W1" s="35"/>
       <c r="X1" s="35"/>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5483,7 +5480,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:24" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5554,7 +5551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5586,7 +5583,7 @@
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="20" t="b">
         <v>0</v>
       </c>
@@ -5609,7 +5606,7 @@
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5639,7 +5636,7 @@
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5679,7 +5676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5706,7 +5703,7 @@
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5733,7 +5730,7 @@
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5760,7 +5757,7 @@
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5787,7 +5784,7 @@
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5814,7 +5811,7 @@
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5841,7 +5838,7 @@
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5868,7 +5865,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5892,7 +5889,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -5922,7 +5919,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>26</v>
@@ -5963,7 +5960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -5991,7 +5988,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -6019,7 +6016,7 @@
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -6047,7 +6044,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -6075,7 +6072,7 @@
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -6103,7 +6100,7 @@
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -6131,7 +6128,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -6159,7 +6156,7 @@
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" customFormat="1" ht="15">
       <c r="A26" s="20" t="b">
         <v>0</v>
       </c>
@@ -6174,7 +6171,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -6198,7 +6195,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" customFormat="1">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -6236,7 +6233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -6257,7 +6254,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" customFormat="1">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6278,7 +6275,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" customFormat="1">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6299,7 +6296,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" customFormat="1" ht="15">
       <c r="A32" s="20" t="b">
         <v>0</v>
       </c>
@@ -6324,7 +6321,7 @@
       <c r="N32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>26</v>
@@ -6365,7 +6362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -6406,7 +6403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -6430,7 +6427,7 @@
       <c r="I35" s="20"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" customFormat="1" ht="15">
       <c r="A36" s="20" t="b">
         <v>0</v>
       </c>
@@ -6450,7 +6447,7 @@
       <c r="I36" s="20"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" customFormat="1" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
@@ -6491,7 +6488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" customFormat="1" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -6515,7 +6512,7 @@
       <c r="I38" s="20"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" customFormat="1" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -6539,7 +6536,7 @@
       <c r="I39" s="20"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" customFormat="1" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -6563,7 +6560,7 @@
       <c r="I40" s="20"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" customFormat="1" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6583,7 +6580,7 @@
       <c r="I41" s="20"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" customFormat="1" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>26</v>
@@ -6624,7 +6621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" customFormat="1" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -6648,7 +6645,7 @@
       <c r="I43" s="20"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" customFormat="1" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -6672,7 +6669,7 @@
       <c r="I44" s="20"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" customFormat="1" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -6696,7 +6693,7 @@
       <c r="I45" s="20"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" customFormat="1" ht="15">
       <c r="A46" s="20" t="b">
         <v>0</v>
       </c>
@@ -6716,7 +6713,7 @@
       <c r="I46" s="20"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" customFormat="1" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -6742,7 +6739,7 @@
       </c>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" customFormat="1" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>26</v>
@@ -6783,7 +6780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" customFormat="1" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -6807,7 +6804,7 @@
       <c r="I49" s="20"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" customFormat="1" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -6831,7 +6828,7 @@
       <c r="I50" s="20"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" customFormat="1" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20" t="s">
         <v>25</v>
@@ -6855,7 +6852,7 @@
       <c r="I51" s="20"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" customFormat="1" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -6879,7 +6876,7 @@
       <c r="I52" s="20"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" customFormat="1" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -6903,7 +6900,7 @@
       <c r="I53" s="20"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" customFormat="1" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -6927,7 +6924,7 @@
       <c r="I54" s="20"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" customFormat="1" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -6951,7 +6948,7 @@
       <c r="I55" s="20"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" customFormat="1" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -6975,7 +6972,7 @@
       <c r="I56" s="20"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" customFormat="1" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -6999,7 +6996,7 @@
       <c r="I57" s="20"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" customFormat="1" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -7023,7 +7020,7 @@
       <c r="I58" s="20"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" customFormat="1" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -7047,7 +7044,7 @@
       <c r="I59" s="20"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" customFormat="1" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -7071,7 +7068,7 @@
       <c r="I60" s="20"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" customFormat="1" ht="15">
       <c r="A61" s="20"/>
       <c r="B61" s="20" t="s">
         <v>25</v>
@@ -7095,7 +7092,7 @@
       <c r="I61" s="20"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" customFormat="1" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -7119,7 +7116,7 @@
       <c r="I62" s="20"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" customFormat="1" ht="15">
       <c r="A63" s="20" t="b">
         <v>0</v>
       </c>
@@ -7139,7 +7136,7 @@
       <c r="I63" s="20"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" customFormat="1" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -7165,7 +7162,7 @@
       </c>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" customFormat="1" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>26</v>
@@ -7206,7 +7203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" customFormat="1" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -7230,7 +7227,7 @@
       <c r="I66" s="20"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" customFormat="1" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -7254,7 +7251,7 @@
       <c r="I67" s="20"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" customFormat="1" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -7278,7 +7275,7 @@
       <c r="I68" s="20"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" customFormat="1" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -7302,7 +7299,7 @@
       <c r="I69" s="20"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" customFormat="1" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -7326,7 +7323,7 @@
       <c r="I70" s="20"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" customFormat="1" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -7350,7 +7347,7 @@
       <c r="I71" s="20"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" customFormat="1" ht="15">
       <c r="A72" s="20"/>
       <c r="B72" s="20" t="s">
         <v>25</v>
@@ -7374,7 +7371,7 @@
       <c r="I72" s="20"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" customFormat="1" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -7398,7 +7395,7 @@
       <c r="I73" s="20"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" customFormat="1" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -7422,7 +7419,7 @@
       <c r="I74" s="20"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" customFormat="1" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -7446,7 +7443,7 @@
       <c r="I75" s="20"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" customFormat="1" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -7470,7 +7467,7 @@
       <c r="I76" s="20"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" customFormat="1" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -7494,7 +7491,7 @@
       <c r="I77" s="20"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" customFormat="1" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -7518,7 +7515,7 @@
       <c r="I78" s="20"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" customFormat="1" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -7542,7 +7539,7 @@
       <c r="I79" s="20"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" customFormat="1" ht="15">
       <c r="A80" s="20" t="b">
         <v>0</v>
       </c>
@@ -7562,7 +7559,7 @@
       <c r="I80" s="20"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" customFormat="1" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -7588,7 +7585,7 @@
       </c>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" customFormat="1" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>26</v>
@@ -7629,7 +7626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" customFormat="1" ht="15">
       <c r="A83" s="20" t="b">
         <v>0</v>
       </c>
@@ -7649,7 +7646,7 @@
       <c r="I83" s="20"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" customFormat="1" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>26</v>
@@ -7690,7 +7687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" customFormat="1" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -7714,7 +7711,7 @@
       <c r="I85" s="20"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" customFormat="1" ht="15">
       <c r="A86" s="20"/>
       <c r="B86" s="20" t="s">
         <v>25</v>
@@ -7738,7 +7735,7 @@
       <c r="I86" s="20"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" customFormat="1" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -7762,7 +7759,7 @@
       <c r="I87" s="20"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" customFormat="1" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -7786,7 +7783,7 @@
       <c r="I88" s="20"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" customFormat="1" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -7810,7 +7807,7 @@
       <c r="I89" s="20"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" customFormat="1" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -7834,7 +7831,7 @@
       <c r="I90" s="20"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" customFormat="1" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -7858,7 +7855,7 @@
       <c r="I91" s="20"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" customFormat="1" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -7882,7 +7879,7 @@
       <c r="I92" s="20"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" customFormat="1" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -7906,7 +7903,7 @@
       <c r="I93" s="20"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" customFormat="1" ht="15">
       <c r="A94" s="20" t="b">
         <v>0</v>
       </c>
@@ -7926,7 +7923,7 @@
       <c r="I94" s="20"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" customFormat="1" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -7952,7 +7949,7 @@
       </c>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" customFormat="1" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -7978,7 +7975,7 @@
       </c>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" customFormat="1" ht="15">
       <c r="A97" s="20"/>
       <c r="B97" s="20" t="s">
         <v>26</v>
@@ -8019,7 +8016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" customFormat="1" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -8043,7 +8040,7 @@
       <c r="I98" s="20"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" customFormat="1" ht="15">
       <c r="A99" s="20"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
@@ -8067,7 +8064,7 @@
       <c r="I99" s="20"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" customFormat="1" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -8091,7 +8088,7 @@
       <c r="I100" s="20"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" customFormat="1" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -8115,7 +8112,7 @@
       <c r="I101" s="20"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" customFormat="1" ht="15">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
         <v>25</v>
@@ -8139,7 +8136,7 @@
       <c r="I102" s="20"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" customFormat="1" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -8163,7 +8160,7 @@
       <c r="I103" s="20"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" customFormat="1" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -8187,7 +8184,7 @@
       <c r="I104" s="20"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" customFormat="1" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -8211,7 +8208,7 @@
       <c r="I105" s="20"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" customFormat="1" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -8235,7 +8232,7 @@
       <c r="I106" s="20"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" customFormat="1" ht="15">
       <c r="A107" s="20"/>
       <c r="B107" s="20" t="s">
         <v>25</v>
@@ -8259,7 +8256,7 @@
       <c r="I107" s="20"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" customFormat="1" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -8283,7 +8280,7 @@
       <c r="I108" s="20"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" customFormat="1" ht="15">
       <c r="A109" s="20" t="b">
         <v>0</v>
       </c>
@@ -8303,7 +8300,7 @@
       <c r="I109" s="20"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" customFormat="1" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -8329,7 +8326,7 @@
       </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" customFormat="1" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>26</v>
@@ -8370,7 +8367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" customFormat="1" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -8394,7 +8391,7 @@
       <c r="I112" s="20"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" customFormat="1" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -8418,7 +8415,7 @@
       <c r="I113" s="20"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" customFormat="1" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -8442,7 +8439,7 @@
       <c r="I114" s="20"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" customFormat="1" ht="15">
       <c r="A115" s="20"/>
       <c r="B115" s="20" t="s">
         <v>25</v>
@@ -8466,7 +8463,7 @@
       <c r="I115" s="20"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" customFormat="1" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -8490,7 +8487,7 @@
       <c r="I116" s="20"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" customFormat="1" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -8514,7 +8511,7 @@
       <c r="I117" s="20"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" customFormat="1" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -8538,7 +8535,7 @@
       <c r="I118" s="20"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" customFormat="1" ht="15">
       <c r="A119" s="20"/>
       <c r="B119" s="20" t="s">
         <v>25</v>
@@ -8562,7 +8559,7 @@
       <c r="I119" s="20"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" customFormat="1" ht="15">
       <c r="A120" s="20" t="b">
         <v>0</v>
       </c>
@@ -8582,7 +8579,7 @@
       <c r="I120" s="20"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" customFormat="1" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -8608,7 +8605,7 @@
       </c>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" customFormat="1" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>26</v>
@@ -8649,7 +8646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="15">
       <c r="A123" s="20" t="b">
         <v>0</v>
       </c>
@@ -8680,7 +8677,7 @@
       <c r="U123" s="33"/>
       <c r="V123" s="33"/>
     </row>
-    <row r="124" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -8717,7 +8714,7 @@
       <c r="U124" s="33"/>
       <c r="V124" s="33"/>
     </row>
-    <row r="125" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>26</v>
@@ -8764,7 +8761,7 @@
       <c r="U125" s="33"/>
       <c r="V125" s="33"/>
     </row>
-    <row r="126" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8795,7 +8792,7 @@
       <c r="U126" s="33"/>
       <c r="V126" s="33"/>
     </row>
-    <row r="127" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -8832,7 +8829,7 @@
       <c r="U127" s="33"/>
       <c r="V127" s="33"/>
     </row>
-    <row r="128" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>26</v>
@@ -8879,7 +8876,7 @@
       <c r="U128" s="33"/>
       <c r="V128" s="33"/>
     </row>
-    <row r="129" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="15">
       <c r="A129" s="20" t="b">
         <v>0</v>
       </c>
@@ -8910,7 +8907,7 @@
       <c r="U129" s="33"/>
       <c r="V129" s="33"/>
     </row>
-    <row r="130" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -8947,7 +8944,7 @@
       <c r="U130" s="33"/>
       <c r="V130" s="33"/>
     </row>
-    <row r="131" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>26</v>
@@ -8994,7 +8991,7 @@
       <c r="U131" s="33"/>
       <c r="V131" s="33"/>
     </row>
-    <row r="132" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15">
       <c r="A132" s="20" t="b">
         <v>0</v>
       </c>
@@ -9025,7 +9022,7 @@
       <c r="U132" s="33"/>
       <c r="V132" s="33"/>
     </row>
-    <row r="133" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -9062,7 +9059,7 @@
       <c r="U133" s="33"/>
       <c r="V133" s="33"/>
     </row>
-    <row r="134" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>26</v>
@@ -9109,7 +9106,7 @@
       <c r="U134" s="33"/>
       <c r="V134" s="33"/>
     </row>
-    <row r="135" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" customFormat="1">
       <c r="A135" t="b">
         <v>0</v>
       </c>
@@ -9123,7 +9120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" customFormat="1">
       <c r="B136" t="s">
         <v>26</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" customFormat="1">
       <c r="B137" t="s">
         <v>25</v>
       </c>
@@ -9183,7 +9180,7 @@
       <c r="O137" s="33"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" ht="15">
       <c r="A138" s="20" t="b">
         <v>0</v>
       </c>
@@ -9204,7 +9201,7 @@
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="A139"/>
       <c r="B139" t="s">
         <v>25</v>
@@ -9231,7 +9228,7 @@
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="A140"/>
       <c r="B140" t="s">
         <v>25</v>
@@ -9256,7 +9253,7 @@
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="A141"/>
       <c r="B141" t="s">
         <v>26</v>
@@ -9297,7 +9294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142"/>
       <c r="B142" t="s">
         <v>25</v>
@@ -9322,7 +9319,7 @@
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143"/>
       <c r="B143" t="s">
         <v>25</v>
@@ -9347,7 +9344,7 @@
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144"/>
       <c r="B144" t="s">
         <v>25</v>
@@ -9374,7 +9371,7 @@
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145"/>
       <c r="B145" t="s">
         <v>25</v>
@@ -9425,21 +9422,21 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -9452,7 +9449,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>483</v>
       </c>
@@ -9474,7 +9471,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -9488,7 +9485,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>496</v>
       </c>
@@ -9508,7 +9505,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>499</v>
       </c>
@@ -9529,7 +9526,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>573</v>
       </c>
@@ -9555,7 +9552,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>575</v>
       </c>
@@ -9581,7 +9578,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>586</v>
       </c>
@@ -9603,7 +9600,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -9625,7 +9622,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -9634,7 +9631,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -9644,7 +9641,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -9654,7 +9651,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -9664,7 +9661,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -9674,7 +9671,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -9684,15 +9681,15 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" customFormat="1"/>
+    <row r="17" spans="1:9" customFormat="1"/>
+    <row r="18" spans="1:9" customFormat="1">
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" customFormat="1"/>
+    <row r="20" spans="1:9" customFormat="1"/>
+    <row r="21" spans="1:9" customFormat="1"/>
+    <row r="22" spans="1:9">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -9702,7 +9699,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9712,7 +9709,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -9722,7 +9719,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9732,7 +9729,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -9742,7 +9739,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9753,7 +9750,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -9763,7 +9760,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -9773,7 +9770,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -9783,7 +9780,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -9809,23 +9806,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I341"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A311" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -9844,7 +9841,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>25</v>
@@ -9865,7 +9862,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>25</v>
@@ -9888,7 +9885,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
@@ -9911,7 +9908,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>25</v>
@@ -9934,7 +9931,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>25</v>
@@ -9957,7 +9954,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>25</v>
@@ -9980,7 +9977,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
@@ -10003,7 +10000,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>25</v>
@@ -10026,7 +10023,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>25</v>
@@ -10049,7 +10046,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -10068,7 +10065,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>25</v>
@@ -10089,7 +10086,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
@@ -10112,7 +10109,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>25</v>
@@ -10135,7 +10132,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>25</v>
@@ -10158,7 +10155,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>25</v>
@@ -10181,7 +10178,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>25</v>
@@ -10204,7 +10201,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
@@ -10227,7 +10224,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>25</v>
@@ -10250,7 +10247,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>25</v>
@@ -10273,7 +10270,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -10292,7 +10289,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -10315,7 +10312,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>25</v>
@@ -10338,7 +10335,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>25</v>
@@ -10361,7 +10358,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -10384,7 +10381,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>25</v>
@@ -10407,7 +10404,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
@@ -10430,7 +10427,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>25</v>
@@ -10453,7 +10450,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>25</v>
@@ -10476,7 +10473,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -10499,7 +10496,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -10518,7 +10515,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>25</v>
@@ -10539,7 +10536,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -10562,7 +10559,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>25</v>
@@ -10585,7 +10582,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>25</v>
@@ -10608,7 +10605,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -10631,7 +10628,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>25</v>
@@ -10654,7 +10651,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>25</v>
@@ -10677,7 +10674,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>25</v>
@@ -10700,7 +10697,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>25</v>
@@ -10723,7 +10720,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -10742,7 +10739,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>25</v>
@@ -10763,7 +10760,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>25</v>
@@ -10786,7 +10783,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>25</v>
@@ -10809,7 +10806,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>25</v>
@@ -10832,7 +10829,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>25</v>
@@ -10855,7 +10852,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>25</v>
@@ -10878,7 +10875,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>25</v>
@@ -10901,7 +10898,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>25</v>
@@ -10924,7 +10921,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>25</v>
@@ -10947,7 +10944,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -10966,7 +10963,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>25</v>
@@ -10987,7 +10984,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>25</v>
@@ -11010,7 +11007,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>25</v>
@@ -11033,7 +11030,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>25</v>
@@ -11056,7 +11053,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>25</v>
@@ -11079,7 +11076,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>25</v>
@@ -11102,7 +11099,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>25</v>
@@ -11125,7 +11122,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>25</v>
@@ -11148,7 +11145,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>25</v>
@@ -11171,7 +11168,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -11190,7 +11187,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>25</v>
@@ -11211,7 +11208,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
@@ -11236,7 +11233,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>25</v>
@@ -11259,7 +11256,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>25</v>
@@ -11282,7 +11279,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>25</v>
@@ -11305,7 +11302,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>25</v>
@@ -11328,7 +11325,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>25</v>
@@ -11351,7 +11348,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>25</v>
@@ -11374,7 +11371,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>25</v>
@@ -11397,7 +11394,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>25</v>
@@ -11420,7 +11417,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -11439,7 +11436,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>25</v>
@@ -11460,7 +11457,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>25</v>
@@ -11483,7 +11480,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>25</v>
@@ -11508,7 +11505,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>25</v>
@@ -11531,7 +11528,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>25</v>
@@ -11554,7 +11551,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>25</v>
@@ -11577,7 +11574,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>25</v>
@@ -11600,7 +11597,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>25</v>
@@ -11623,7 +11620,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>25</v>
@@ -11646,7 +11643,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>25</v>
@@ -11669,7 +11666,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>25</v>
@@ -11692,7 +11689,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>25</v>
@@ -11715,7 +11712,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>25</v>
@@ -11738,7 +11735,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -11757,7 +11754,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>25</v>
@@ -11780,7 +11777,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>25</v>
@@ -11803,7 +11800,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>25</v>
@@ -11826,7 +11823,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>25</v>
@@ -11849,7 +11846,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>25</v>
@@ -11872,7 +11869,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>25</v>
@@ -11895,7 +11892,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>25</v>
@@ -11918,7 +11915,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>25</v>
@@ -11941,7 +11938,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>25</v>
@@ -11964,7 +11961,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>25</v>
@@ -11987,7 +11984,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -12006,7 +12003,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>25</v>
@@ -12031,7 +12028,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -12050,7 +12047,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>25</v>
@@ -12071,7 +12068,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>25</v>
@@ -12096,7 +12093,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -12115,7 +12112,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>25</v>
@@ -12138,7 +12135,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>25</v>
@@ -12163,7 +12160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>25</v>
@@ -12186,7 +12183,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>25</v>
@@ -12207,7 +12204,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -12226,7 +12223,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>25</v>
@@ -12251,7 +12248,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>25</v>
@@ -12274,7 +12271,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>25</v>
@@ -12297,7 +12294,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>25</v>
@@ -12320,7 +12317,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>25</v>
@@ -12343,7 +12340,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>25</v>
@@ -12366,7 +12363,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>25</v>
@@ -12389,7 +12386,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -12408,7 +12405,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>25</v>
@@ -12431,7 +12428,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>25</v>
@@ -12454,7 +12451,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>25</v>
@@ -12477,7 +12474,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -12496,7 +12493,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>25</v>
@@ -12519,7 +12516,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>25</v>
@@ -12542,7 +12539,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>25</v>
@@ -12565,7 +12562,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>25</v>
@@ -12588,7 +12585,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>25</v>
@@ -12611,7 +12608,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>25</v>
@@ -12634,7 +12631,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -12653,7 +12650,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>25</v>
@@ -12678,7 +12675,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>25</v>
@@ -12701,7 +12698,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>25</v>
@@ -12724,7 +12721,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>25</v>
@@ -12747,7 +12744,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>25</v>
@@ -12770,7 +12767,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>25</v>
@@ -12793,7 +12790,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>25</v>
@@ -12816,7 +12813,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>25</v>
@@ -12839,7 +12836,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>25</v>
@@ -12862,7 +12859,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -12881,7 +12878,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>25</v>
@@ -12906,7 +12903,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>25</v>
@@ -12927,7 +12924,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>25</v>
@@ -12950,7 +12947,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>25</v>
@@ -12973,7 +12970,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>25</v>
@@ -12996,7 +12993,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>25</v>
@@ -13019,7 +13016,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>25</v>
@@ -13042,7 +13039,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>25</v>
@@ -13065,7 +13062,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>25</v>
@@ -13088,7 +13085,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>25</v>
@@ -13111,7 +13108,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>25</v>
@@ -13134,7 +13131,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>25</v>
@@ -13157,7 +13154,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>25</v>
@@ -13180,7 +13177,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>25</v>
@@ -13203,7 +13200,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -13222,7 +13219,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>25</v>
@@ -13245,7 +13242,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -13264,7 +13261,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>25</v>
@@ -13287,7 +13284,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>25</v>
@@ -13310,7 +13307,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -13329,7 +13326,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>25</v>
@@ -13354,7 +13351,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>25</v>
@@ -13377,7 +13374,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>25</v>
@@ -13400,7 +13397,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>25</v>
@@ -13423,7 +13420,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>25</v>
@@ -13446,7 +13443,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>25</v>
@@ -13469,7 +13466,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>25</v>
@@ -13492,7 +13489,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>25</v>
@@ -13515,7 +13512,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>25</v>
@@ -13538,7 +13535,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>25</v>
@@ -13561,7 +13558,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -13580,7 +13577,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>25</v>
@@ -13605,7 +13602,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>25</v>
@@ -13628,7 +13625,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>25</v>
@@ -13651,7 +13648,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>25</v>
@@ -13674,7 +13671,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>25</v>
@@ -13697,7 +13694,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>25</v>
@@ -13720,7 +13717,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>25</v>
@@ -13743,7 +13740,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>25</v>
@@ -13766,7 +13763,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>25</v>
@@ -13789,7 +13786,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>25</v>
@@ -13812,7 +13809,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -13831,7 +13828,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>25</v>
@@ -13854,7 +13851,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>25</v>
@@ -13877,7 +13874,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>25</v>
@@ -13900,7 +13897,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>25</v>
@@ -13923,7 +13920,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -13942,7 +13939,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>25</v>
@@ -13965,7 +13962,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>25</v>
@@ -13988,7 +13985,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>25</v>
@@ -14011,7 +14008,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>25</v>
@@ -14034,7 +14031,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -14053,7 +14050,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>25</v>
@@ -14074,7 +14071,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>25</v>
@@ -14097,7 +14094,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -14116,7 +14113,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>25</v>
@@ -14139,7 +14136,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>25</v>
@@ -14164,7 +14161,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>25</v>
@@ -14185,7 +14182,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>25</v>
@@ -14210,7 +14207,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>25</v>
@@ -14235,7 +14232,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -14254,7 +14251,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>25</v>
@@ -14279,7 +14276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>25</v>
@@ -14302,7 +14299,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>25</v>
@@ -14325,7 +14322,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>25</v>
@@ -14348,7 +14345,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>25</v>
@@ -14371,7 +14368,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>25</v>
@@ -14394,7 +14391,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>25</v>
@@ -14417,7 +14414,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>25</v>
@@ -14440,7 +14437,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>25</v>
@@ -14463,7 +14460,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -14482,7 +14479,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>25</v>
@@ -14507,7 +14504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>25</v>
@@ -14530,7 +14527,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>25</v>
@@ -14553,7 +14550,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>25</v>
@@ -14576,7 +14573,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>25</v>
@@ -14599,7 +14596,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>25</v>
@@ -14622,7 +14619,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>25</v>
@@ -14645,7 +14642,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>25</v>
@@ -14668,7 +14665,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>25</v>
@@ -14691,7 +14688,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -14710,7 +14707,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>25</v>
@@ -14731,7 +14728,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>25</v>
@@ -14754,7 +14751,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>25</v>
@@ -14777,7 +14774,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>25</v>
@@ -14800,7 +14797,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>25</v>
@@ -14823,7 +14820,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>25</v>
@@ -14846,7 +14843,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>25</v>
@@ -14869,7 +14866,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>25</v>
@@ -14892,7 +14889,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>25</v>
@@ -14915,7 +14912,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>25</v>
@@ -14938,7 +14935,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>25</v>
@@ -14961,7 +14958,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>25</v>
@@ -14984,7 +14981,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>25</v>
@@ -15007,7 +15004,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>25</v>
@@ -15030,7 +15027,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>25</v>
@@ -15053,7 +15050,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>25</v>
@@ -15076,7 +15073,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -15095,7 +15092,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>25</v>
@@ -15116,7 +15113,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>25</v>
@@ -15139,7 +15136,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>25</v>
@@ -15162,7 +15159,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>25</v>
@@ -15185,7 +15182,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>25</v>
@@ -15208,7 +15205,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>25</v>
@@ -15231,7 +15228,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>25</v>
@@ -15254,7 +15251,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>25</v>
@@ -15277,7 +15274,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>25</v>
@@ -15300,7 +15297,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>25</v>
@@ -15323,7 +15320,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>25</v>
@@ -15346,7 +15343,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>25</v>
@@ -15369,7 +15366,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>25</v>
@@ -15392,7 +15389,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>25</v>
@@ -15415,7 +15412,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>25</v>
@@ -15438,7 +15435,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>25</v>
@@ -15461,7 +15458,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -15480,7 +15477,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>25</v>
@@ -15505,7 +15502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>25</v>
@@ -15528,7 +15525,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>25</v>
@@ -15551,7 +15548,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>25</v>
@@ -15574,7 +15571,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>25</v>
@@ -15597,7 +15594,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -15616,7 +15613,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>25</v>
@@ -15641,7 +15638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>25</v>
@@ -15664,7 +15661,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -15683,7 +15680,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -15702,7 +15699,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -15721,7 +15718,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>25</v>
@@ -15742,7 +15739,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>25</v>
@@ -15765,7 +15762,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>25</v>
@@ -15788,7 +15785,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>25</v>
@@ -15811,7 +15808,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>25</v>
@@ -15834,7 +15831,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>25</v>
@@ -15857,7 +15854,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>25</v>
@@ -15880,7 +15877,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>25</v>
@@ -15903,7 +15900,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>25</v>
@@ -15926,7 +15923,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>25</v>
@@ -15949,7 +15946,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>25</v>
@@ -15972,7 +15969,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -15991,7 +15988,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>25</v>
@@ -16014,7 +16011,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -16033,7 +16030,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>25</v>
@@ -16058,7 +16055,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>25</v>
@@ -16081,7 +16078,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>25</v>
@@ -16104,7 +16101,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>25</v>
@@ -16127,7 +16124,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>25</v>
@@ -16150,7 +16147,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>25</v>
@@ -16173,7 +16170,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>25</v>
@@ -16196,7 +16193,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>25</v>
@@ -16219,7 +16216,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>25</v>
@@ -16242,7 +16239,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>25</v>
@@ -16265,7 +16262,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>25</v>
@@ -16288,7 +16285,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -16307,7 +16304,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>25</v>
@@ -16330,7 +16327,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -16349,7 +16346,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>25</v>
@@ -16370,7 +16367,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -16389,7 +16386,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>25</v>
@@ -16410,7 +16407,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -16429,7 +16426,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>25</v>
@@ -16450,7 +16447,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -16469,7 +16466,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>25</v>
@@ -16492,7 +16489,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -16511,7 +16508,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>25</v>
@@ -16536,7 +16533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>25</v>
@@ -16559,7 +16556,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>25</v>
@@ -16582,7 +16579,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>25</v>
@@ -16605,7 +16602,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>25</v>
@@ -16628,7 +16625,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>25</v>
@@ -16651,7 +16648,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>25</v>
@@ -16674,7 +16671,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>25</v>
@@ -16697,7 +16694,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>25</v>
@@ -16720,7 +16717,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -16739,7 +16736,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>25</v>
@@ -16762,7 +16759,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>25</v>
@@ -16785,7 +16782,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>25</v>
@@ -16808,7 +16805,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>25</v>
@@ -16831,7 +16828,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -16850,7 +16847,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>25</v>
@@ -16873,7 +16870,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>25</v>
@@ -16896,7 +16893,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>25</v>
@@ -16921,7 +16918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -16940,7 +16937,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>25</v>
@@ -16965,7 +16962,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>25</v>
@@ -16988,7 +16985,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -17007,7 +17004,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>25</v>
@@ -17028,7 +17025,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>25</v>
@@ -17049,7 +17046,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>25</v>
@@ -17072,7 +17069,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -17091,7 +17088,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -17110,7 +17107,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>25</v>
@@ -17135,7 +17132,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>25</v>
@@ -17160,7 +17157,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17174,7 +17171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>25</v>
       </c>
@@ -17197,7 +17194,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>25</v>
       </c>
@@ -17217,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>25</v>
       </c>
@@ -17237,7 +17234,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>25</v>
       </c>
@@ -17257,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>25</v>
       </c>
@@ -17274,7 +17271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>25</v>
       </c>
@@ -17297,7 +17294,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>25</v>
       </c>
@@ -17320,7 +17317,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17334,7 +17331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9">
       <c r="B337" t="s">
         <v>25</v>
       </c>
@@ -17357,7 +17354,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9">
       <c r="B338" t="s">
         <v>25</v>
       </c>
@@ -17380,7 +17377,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:9">
       <c r="B339" t="s">
         <v>25</v>
       </c>
@@ -17400,7 +17397,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9">
       <c r="B340" t="s">
         <v>25</v>
       </c>
@@ -17420,7 +17417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:9">
       <c r="B341" t="s">
         <v>25</v>
       </c>
@@ -17455,13 +17452,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -17472,7 +17469,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>448</v>
       </c>
@@ -17483,7 +17480,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -17494,7 +17491,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -17505,7 +17502,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>450</v>
       </c>
@@ -17516,17 +17513,17 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>475</v>
       </c>
